--- a/Submission 2.0/Error Logs/1_error_log.xlsx
+++ b/Submission 2.0/Error Logs/1_error_log.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1084FF-EB41-42E1-9F2E-629B707BC6E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364089B8-77DB-4092-88A3-0A07B8D44E89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="151">
   <si>
     <t>image_1</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>0018768.jpg</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -522,6 +525,2728 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Predicted  (Blue) Original (Organge)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>741100.00885604497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>741099.71799071098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>741099.56111538794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>741100.99921421194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>741100.68226156896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>741100.563477483</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>741101.226657163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>741101.16985924297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>741102.14058265497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>741101.57909149304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>741102.784093578</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>741102.22239149397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>741103.89341421204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>741102.41696861002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>741104.46283958305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>741103.62626360101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>741104.65546517598</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>741104.36919692496</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>741105.49839389406</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>741106.20126412401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>741105.08789769001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>741106.94352595496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>741107.28306412406</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>741107.25968467805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>741106.93511144095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>741107.98035595298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>741107.655515322</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>741108.70248855802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>741108.37742976996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>741109.42328467802</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>741110.08712057199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>741109.13623498101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>741110.485188597</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>741111.131119019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>741111.47133801796</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>741110.65473843995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741112.19264964096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>741112.53582390398</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>741112.87803896097</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>741113.21923005697</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>741113.58219921601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>741112.85586748598</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>741114.33786058996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>741114.41659498005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>741113.97844908701</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>741115.47687870997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>741114.75954908703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>741116.25674682006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>741116.62821403902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>741117.01910503698</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>741117.39027418499</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>741116.74779139599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>741118.17229901894</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>741118.54370485805</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>741118.16824382602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>741118.99808206502</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>741119.08319915098</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>741119.89231369004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>741120.53317041299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>741120.10146484396</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>741121.06351369002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>741120.97111100797</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>741121.66874052095</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>741121.83890187996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>741122.64420705603</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>741122.90178206505</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>741123.01010187995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>741123.59837092704</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>741123.77699580195</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>741124.86420687404</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>741125.25366322999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>741125.62468778901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>741125.997569322</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>741126.38059212803</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>741125.57189500099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>741127.11952997395</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>741127.44245613797</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>741126.60423932504</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>741127.72375899204</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>741127.61900275096</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>741128.80137523205</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>741129.14590584801</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>741128.32651344105</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>741129.85345613805</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>741130.15992207394</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>741129.665786147</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>741130.47974394797</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>741130.12544841506</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>741131.51639919099</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>741131.84378951695</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>741132.168049759</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>741132.49589426396</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>741132.82159185503</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>741133.16668115696</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>741133.51046821696</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>741133.60735462198</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>741134.13166619302</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>741133.67599921499</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>741134.83746310906</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>741134.952177278</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>741134.93813223206</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>741135.836752492</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>741136.16248345899</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>741136.45757749805</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>741136.59160890698</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>741136.460764074</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>741137.365158687</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>741137.51477005798</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>741137.46265163098</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>741138.27597391803</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>741138.58084836905</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>741138.88434369699</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>741139.18952177803</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>741139.38025251497</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>741139.43238794</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>741140.10534218396</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>741140.41162141901</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>741140.71852273401</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>741140.91652898898</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>741141.12717317697</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>741141.56724907702</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>741141.706323675</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>741142.25503233401</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>741142.50170801999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>741142.84926360205</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>741143.16610940895</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>741143.47611233802</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>741143.78027972498</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>741144.09161583602</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>741144.37603816099</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>741144.69976376696</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>741144.99752821703</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>741145.30239452794</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>741145.58199285495</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>741145.85744161403</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>741146.40749999997</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>741146.68604379205</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>741146.96398389095</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>741147.22937962797</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>741147.52735290001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>741147.79830813303</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>741148.05487515696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>3742737.73010035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3742756.6399921598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3742772.4929952398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3742734.6330591999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3742754.3817001102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3742768.87852431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3742756.4783122502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3742768.7173178699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3742746.0197651102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3742774.7863730998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3742744.50351517</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3742773.2773730899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3742727.8440592</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3742786.51088343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3742730.4047500198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3742769.0699350098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3742746.56557984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3742767.4886364602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3742741.1587890899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3742728.7678442299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3742778.1220743302</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3742726.8222112199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3742726.9198442101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3742738.7763131899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3742762.4464493198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3742737.57552478</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3742761.2211904102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3742736.31946284</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3742759.9749448602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3742735.0793131799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3742723.4315625299</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3742769.9018897298</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3742733.5885613798</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3742722.26818919</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3742721.69535961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3742766.0363880498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3742720.4347433001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3742720.5182770099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3742719.8886119402</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3742720.03989963</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3742719.3559645498</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3742761.5974761802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3742717.4513762998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3742727.53214279</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3742760.4639481599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3742714.6335200402</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3742759.1469481601</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3742713.3302881401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3742713.4400996799</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3742712.79076989</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3742712.14905186</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3742755.0914811799</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3742710.7923159502</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3742710.9375188202</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3742742.4072405798</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3742723.38594878</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3742735.5501912902</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3742717.8663407802</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3742706.8423159299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3742739.5091887</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3742715.8903407799</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3742734.48347564</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3742721.53240722</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3742729.9073530301</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3742712.87486789</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3742716.80194879</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3742727.93235303</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3742719.0592892999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3742727.4607222802</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3742698.8468164699</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3742698.2146272999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3742697.5566273001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3742697.6502514798</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3742695.78649888</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3742742.0879478999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3742693.0778874299</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3742692.3631079001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3742739.8872412299</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3742707.2262957999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3742725.7075964301</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3742690.18565783</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3742689.4589812998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3742736.1652489002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3742687.1681078998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3742687.2044591298</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3742721.6573830899</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3742701.2855104501</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3742730.8419358502</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3742685.11823382</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3742684.3126501902</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3742684.4511897401</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3742683.6489782301</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3742683.7584664701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3742683.00770737</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3742682.2755602002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3742692.15243829</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3742682.41719143</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3742720.94171366</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3742680.0902233799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3742690.0255287699</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3742708.0971017</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3742678.73805755</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3742678.85425214</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3742679.2978293998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3742687.4054386499</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3742711.5928514199</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3742677.9587275698</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3742686.07957428</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3742707.98661611</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3742677.4300124501</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3742676.6947724898</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3742676.78953698</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3742676.0671694302</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3742683.0436911201</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3742701.4885534602</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3742675.5311120301</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3742674.8270832198</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3742674.8808795302</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3742682.3652614001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3742690.7337051802</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3742679.3221734702</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3742694.32294787</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3742672.9407657199</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3742677.9859435898</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3742673.83681751</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3742673.14574449</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3742672.4482891499</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3742672.5174040701</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3742672.5764976302</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3742675.3352061198</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3742672.71472038</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3742675.0907518598</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3742673.4996856898</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3742672.5718099</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3742671.7950237701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3742673.5449999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3742672.3524071299</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3742672.2635270902</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3742674.5122100501</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3742668.36663118</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3742670.0682906401</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3742671.3557321602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E522-4245-B4BF-CBC0ED2345C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>741114.04342445405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3742737.5812381101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E522-4245-B4BF-CBC0ED2345C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="493217080"/>
+        <c:axId val="493219000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="493217080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493219000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="493219000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493217080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322273</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1065691</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE651F2-A52E-472A-9583-636111AA180B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322273" y="26657300"/>
+          <a:ext cx="3785068" cy="2673349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF4A01E-3E94-460C-9622-C666D3252D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="L152" sqref="L152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3663,7 +6388,21 @@
         <v>3742737.5812381101</v>
       </c>
     </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144">
+        <f>AVERAGE(C2:C143)</f>
+        <v>741124.32261246711</v>
+      </c>
+      <c r="D144">
+        <f>AVERAGE(D2:D143)</f>
+        <v>3742712.3283737428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>